--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/Character/PoporiR27Gladiator/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/Character/PoporiR27Gladiator/AnimationInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02. KoreaPolytechnicUniversity\98.Resource\3D GameResource\Tera\PlayerCharacter_Gladiator\Popori_F_R27\01.XFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03. GitHub\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\Character\PoporiR27Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF891B93-ABD7-4F15-8F83-669BBC5FBAC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F330794-5C82-42C1-A50A-E22D2D355288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1335" windowWidth="23280" windowHeight="16920" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3945F1B-935D-41F2-9305-F8AE345AF27E}">
   <dimension ref="C3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>21</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>28</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>29</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>32</v>

--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/Character/PoporiR27Gladiator/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/Character/PoporiR27Gladiator/AnimationInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03. GitHub\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\Character\PoporiR27Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F330794-5C82-42C1-A50A-E22D2D355288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3F46EE-98F1-4D9D-8EC9-4766E5641FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1335" windowWidth="23280" windowHeight="16920" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Animation Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,10 @@
   </si>
   <si>
     <t>DRAW_SWORD_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUMBLING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3945F1B-935D-41F2-9305-F8AE345AF27E}">
-  <dimension ref="C3:F32"/>
+  <dimension ref="C3:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -998,6 +1002,20 @@
         <v>1176</v>
       </c>
     </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1177</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1237</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
